--- a/colbert/output/Results_colbert_max_body_split_bm25_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_body_split_bm25_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>93249</v>
+        <v>76808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76808</v>
+        <v>93249</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42522</v>
+        <v>112959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -4577,11 +4577,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>24701</v>
+        <v>35964</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -4827,11 +4827,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>32271</v>
+        <v>83025</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -5652,11 +5652,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>58651</v>
+        <v>35964</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>83025</v>
+        <v>32271</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>35964</v>
+        <v>58651</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -6252,11 +6252,11 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -6277,11 +6277,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6527,11 +6527,11 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>71635</v>
+        <v>62368</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -6552,11 +6552,11 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>49262</v>
+        <v>71635</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -6577,11 +6577,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>62368</v>
+        <v>49262</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -7202,11 +7202,11 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -8277,11 +8277,11 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>99024</v>
+        <v>93249</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -8302,11 +8302,11 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>107699</v>
+        <v>58224</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -8327,11 +8327,11 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>93249</v>
+        <v>99024</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -8402,11 +8402,11 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -8427,11 +8427,11 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -8452,11 +8452,11 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -9127,11 +9127,11 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>83133</v>
+        <v>87098</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>87098</v>
+        <v>83133</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -9202,11 +9202,11 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -9277,11 +9277,11 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -10127,11 +10127,11 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -10202,11 +10202,11 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -10677,11 +10677,11 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -10702,11 +10702,11 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -10852,11 +10852,11 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>22123</v>
+        <v>63593</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -10877,11 +10877,11 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>58224</v>
+        <v>22123</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>i don t feel like cooking tonight  casserole</t>
         </is>
       </c>
     </row>
@@ -10902,11 +10902,11 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -10927,11 +10927,11 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>63593</v>
+        <v>39959</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -10952,11 +10952,11 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -11502,11 +11502,11 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -11527,11 +11527,11 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -11552,11 +11552,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -14177,11 +14177,11 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -14202,11 +14202,11 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -15877,11 +15877,11 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -15927,11 +15927,11 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -15952,11 +15952,11 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -16752,11 +16752,11 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -16777,11 +16777,11 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -19652,11 +19652,11 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>95926</v>
+        <v>63793</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -19677,11 +19677,11 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -19802,11 +19802,11 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -19827,11 +19827,11 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -20502,11 +20502,11 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -20527,11 +20527,11 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -20552,11 +20552,11 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>25274</v>
+        <v>23850</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -21127,11 +21127,11 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -21152,11 +21152,11 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -22302,11 +22302,11 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -22327,11 +22327,11 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>59534</v>
+        <v>32169</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -23102,11 +23102,11 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>59534</v>
+        <v>23850</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -23127,11 +23127,11 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>23850</v>
+        <v>137739</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -23152,11 +23152,11 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>137739</v>
+        <v>59534</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -23977,11 +23977,11 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>107229</v>
+        <v>83873</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -24002,11 +24002,11 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>83873</v>
+        <v>107229</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -24027,11 +24027,11 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>54272</v>
+        <v>63986</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>chicken lickin  good  pork chops</t>
         </is>
       </c>
     </row>
@@ -24052,11 +24052,11 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>63986</v>
+        <v>98930</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -24077,11 +24077,11 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>98930</v>
+        <v>54272</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -24627,11 +24627,11 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -24652,11 +24652,11 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -24677,11 +24677,11 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -24702,11 +24702,11 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -26652,11 +26652,11 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>95926</v>
+        <v>30300</v>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -26702,11 +26702,11 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>30300</v>
+        <v>95926</v>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -27252,11 +27252,11 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -27277,11 +27277,11 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -27302,11 +27302,11 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -27577,11 +27577,11 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>95926</v>
+        <v>67664</v>
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -29627,11 +29627,11 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -29652,11 +29652,11 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -29702,11 +29702,11 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -29927,11 +29927,11 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -29952,11 +29952,11 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -31002,11 +31002,11 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>25274</v>
+        <v>24701</v>
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -31027,11 +31027,11 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>54272</v>
+        <v>25274</v>
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -31052,11 +31052,11 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>81185</v>
+        <v>54272</v>
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -31077,11 +31077,11 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>24701</v>
+        <v>81185</v>
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>mock a mole   low fat guacamole</t>
         </is>
       </c>
     </row>
@@ -31952,11 +31952,11 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>42570</v>
+        <v>107699</v>
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -33402,11 +33402,11 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -33427,11 +33427,11 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -33452,11 +33452,11 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -34502,11 +34502,11 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>25274</v>
+        <v>60219</v>
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -34527,11 +34527,11 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>60219</v>
+        <v>25274</v>
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -34552,11 +34552,11 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>54100</v>
+        <v>32169</v>
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34577,11 +34577,11 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>107229</v>
+        <v>54100</v>
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -37127,11 +37127,11 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>103948</v>
+        <v>31490</v>
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -37152,11 +37152,11 @@
         </is>
       </c>
       <c r="D1469" t="n">
-        <v>39363</v>
+        <v>103948</v>
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>smells like sunday  chicken fricassee with meatballs</t>
         </is>
       </c>
     </row>
@@ -37177,11 +37177,11 @@
         </is>
       </c>
       <c r="D1470" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -37202,11 +37202,11 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>25775</v>
+        <v>39363</v>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -38027,11 +38027,11 @@
         </is>
       </c>
       <c r="D1504" t="n">
-        <v>27087</v>
+        <v>112959</v>
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -38052,11 +38052,11 @@
         </is>
       </c>
       <c r="D1505" t="n">
-        <v>112959</v>
+        <v>27087</v>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
